--- a/Base de données/insert into/AU.xlsx
+++ b/Base de données/insert into/AU.xlsx
@@ -15071,10 +15071,14 @@
   <dimension ref="A1:C4902"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C4902"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
